--- a/biology/Botanique/Amarante_(arbre)/Amarante_(arbre).xlsx
+++ b/biology/Botanique/Amarante_(arbre)/Amarante_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot amarante désigne certaines espèces d'arbres du genre Peltogyne (famille des Caesalpiniaceae selon la classification classique, ou de celle des Fabaceae, sous-famille des Caesalpinioideae selon la classification phylogénétique). Ils sont originaires d'Amérique du Sud.
 Il s'agit essentiellement de Peltogyne venosa et Peltogyne paniculata subsp. pubescens.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition s'étend approximativement de l'isthme de Panama au centre du Brésil (São Paulo). Leur fréquence en forêt est assez faible. On les trouve surtout sur les terrains humides, en mélange avec d'autres essences, mais on les rencontre également sur les terrains accidentés où parfois ils sont abondants. L'amarante est une essence de lumière qui rejette bien de souche. Sous cette appellation, on commercialise plusieurs espèces dont les caractéristiques sont sensiblement identiques. Le volume brut des arbres de 60 cm et plus de diamètre, représente en Guyane, environ 1 à 1,5 m3/ha. Les approvisionnements peuvent donc être considérés comme limités, mais suffisants pour créer des courants commerciaux réguliers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition s'étend approximativement de l'isthme de Panama au centre du Brésil (São Paulo). Leur fréquence en forêt est assez faible. On les trouve surtout sur les terrains humides, en mélange avec d'autres essences, mais on les rencontre également sur les terrains accidentés où parfois ils sont abondants. L'amarante est une essence de lumière qui rejette bien de souche. Sous cette appellation, on commercialise plusieurs espèces dont les caractéristiques sont sensiblement identiques. Le volume brut des arbres de 60 cm et plus de diamètre, représente en Guyane, environ 1 à 1,5 m3/ha. Les approvisionnements peuvent donc être considérés comme limités, mais suffisants pour créer des courants commerciaux réguliers.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Bois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'amarante est un bois précieux violet aux veines peu apparentes, commercialisé sous le nom de bois violet (à ne pas confondre avec le « bois de violette » : dalbergia cearensis).
 Le bois parfait d'amarante a une teinte caractéristique violette plus ou moins foncée. Sa couleur a tendance à foncer une fois le bois mis en œuvre, mais cette évolution est lente et demande plusieurs années. Au moment du sciage, le cœur fraîchement coupé est presque blanc, mais vire au violet très rapidement à la lumière. Peltogyne venosa a une teinte plus attrayante que celle du Peltogyne pankulata.
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,7 +625,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amarante est utilisé en ébénisterie, lutherie ou encore en marqueterie sous forme de bois massif ou en placage.
 </t>
